--- a/data/subset1_2023/num_in_subset1_2023.xlsx
+++ b/data/subset1_2023/num_in_subset1_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/shicheng_li_vanderbilt_edu/Documents/Desktop/CSD_2023/subset1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/shicheng_li_vanderbilt_edu/Documents/Desktop/nitrate_and_water_in_csd/data/subset1_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C0F4A31BEE50991D9F108F12FFF2D3C284532D4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216998E3-E3D2-44C0-9CF9-D23832CCA9D8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_C0F4A31BEE50991D9F108F12FFF2D3C284532D4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D21E82A-D772-4022-B0CE-CF40F55F5523}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="6630" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subset1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>La</t>
   </si>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -457,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="B4" sqref="B4:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4168</v>
       </c>
@@ -558,6 +558,118 @@
       <c r="P2">
         <f>SUM(A2:N2)</f>
         <v>53370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1721</v>
       </c>
     </row>
   </sheetData>
